--- a/src/main/resources/xlsx/reporteFacultad.xlsx
+++ b/src/main/resources/xlsx/reporteFacultad.xlsx
@@ -19,7 +19,7 @@
     <definedName name="CriteriosBusqueda">ALUMNO!$A$3:$N$5</definedName>
     <definedName name="Datos">ALUMNO!$A$8:$N$8</definedName>
     <definedName name="Encabezado">ALUMNO!$A$6:$N$7</definedName>
-    <definedName name="Titulo">ALUMNO!$A$1:$N$2</definedName>
+    <definedName name="Titulo">ALUMNO!$A$1:$I$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -123,7 +123,7 @@
     <t>Fechas</t>
   </si>
   <si>
-    <t>${descripcionFechaEnvio}</t>
+    <t>${fechaInicio} A ${fechaFin}</t>
   </si>
 </sst>
 </file>
@@ -287,34 +287,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,9 +604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,79 +627,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="E4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="16"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
